--- a/data/银联商务/银联商务报表.xlsx
+++ b/data/银联商务/银联商务报表.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,51 +394,4756 @@
           <t>不合格端到端信息</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>不合格的原因</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>丢包时长累加</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>最大时延占比</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>CPU异常时间</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>40400721</t>
+          <t>40400779</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>临时会议(40400721)</t>
+          <t>临时会议(40400779)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2019-04-23 08:57:07</t>
+          <t>2019-03-20 08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019-04-23 09:58:43</t>
+          <t>2019-03-20 08:52:18</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>92.96%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>69900305_连云区
+69900293_金坛业务部
+65000592_江苏分公司会议室
+69900339_睢宁业务部
+69900332_泰兴业务部
+69900333_泰州姜堰业务部
+69900330_戚菲
+69900297_淮安
+69900331_靖江业务部
+69900298_金湖
+69900337_江阴业务部
+69900334_兴化业务部
+69900335_无锡
+69900291_常州分公司
+69900292_市场服务部
+69900290_溧阳
+69900372_江苏21楼会议室
+69900295_涟水业务部
+69900296_楚州业务部
+69900294_南京高淳
+69900371_江苏分公司
+69900307_南通
+69900308_启东业务部
+69900349_东台
+69900306_灌南
+69900309_海门业务部
+69900343_沛县
+69900300_盱眙
+69900341_徐州分公司
+69900342_丰县
+69900303_连云港-东海
+69900347_徐旭
+69900348_盐城11
+69900304_灌云业务部
+69900301_连云港
+69900345_银联商务邳州业务部
+69900302_连云港--赣榆
+69900346_盐城响水
+69900340_贾汪
+69900318_张家港业务部
+69900319_吴江业务部
+69900316_昆山业务部
+69900317_常熟
+69900310_如皋业务部
+69900354_宝应
+69900355_银联商务扬州分公司
+69900352_建湖
+69900353_射阳
+69900315_苏州
+69900356_jiangdu
+69900313_南通海安
+69900357_仪征
+69900350_银联商务大丰业务部
+69900329_泰州
+69900327_江苏宿迁泗阳
+69900328_沭阳
+69900365_江宁业务部
+69900363_江苏江北办事处
+69900320_苏州-太仓业务部
+69900364_南京分公司25楼
+69900325_银联商务宿迁分公司
+69900326_泗洪
+69900367_南京分公司城东办事处
+69900324_苏州市场四部
+69900361_丹阳
+69900360_镇江分公司</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>65000592-&gt;69900332
+65000592-&gt;69900297
+65000592-&gt;69900307
+65000592-&gt;69900317
+65000592-&gt;69900356</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>69900307_终端下行网络丟包、抖动
+69900356_终端CPU过载
+69900297_终端下行网络抖动
+69900332_终端下行网络抖动
+69900317_终端下行网络抖动
+69900356_终端下行网络丟包、抖动</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>69900307_下行网络丢包累加时长165秒
+69900356_下行网络丢包累加时长305秒</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>69900307_下行网络最大时延占比86.96%
+69900297_下行网络最大时延占比14.29%
+69900332_下行网络最大时延占比6.93%
+69900317_下行网络最大时延占比5.56%
+69900356_下行网络最大时延占比47.02%</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>69900356_CPU异常时间45秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>50400719</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>临时会议(50400719)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2019-03-20 08:29:24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2019-03-20 19:20:32</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>97.44%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>65000832_云南分公司
+69900723_楚雄业务部
+69900766_德宏瑞丽
+69900744_丽江业务部
+69900769_保山龙陵县
+69900724_楚雄禄丰县
+69900746_临沧业务部
+69900727_大理业务部
+69900749_怒江业务部
+69900726_沙郭栋
+69900748_耿马县穆喜喜
+69900728_大理巍山县
+69900761_玉溪易门县
+69900760_玉溪
+69900741_弥勒
+69900763_镇雄刘云刚
+69900740_红河建水
+69900743_丽江市华坪县
+69900721_保山业务部
+69900764_昭通
+69900999_禄劝县
+69900756_文山业务部
+69900733_德宏
+69900736_红河开远
+69900758_西双版纳业务部
+69900735_迪庆
+69900738_个旧
+69900759_勐海县
+69900737_红河泸西
+69900739_红河-蒙自
+69900772_安宁市
+69901000_楚雄元谋
+69900771_勐腊县
+69900730_祥云县杜建永
+69900752_曲靖-陆良县
+69900773_陈柏年
+69900751_曲靖 宣威
+69900754_普洱思茅
+69900732_大理永平县
+69900753_曲靖-罗平县</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>65000832-&gt;69900752</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>69900752_终端下行网络丟包</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>69900752_下行网络丢包累加时长4770秒</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>80400757</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>临时会议(80400757)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2019-03-20 08:33:19</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2019-03-20 17:23:25</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>65000813_青岛分公司
+69900469_青岛-平度
+69900468_青岛-莱西
+69900467_青岛-开发区
+69900466_青岛-胶州
+69900470_青岛-即墨
+69900465_青岛-城阳</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>80400745</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>临时会议(80400745)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2019-03-20 09:49:54</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2019-03-20 11:43:37</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>69900461_宁夏分公司石嘴山业务部
+65000819_宁夏分公司</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>69900461-&gt;65000819</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>69900461_终端CPU过载
+69900461_终端上行网络抖动</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>69900461_上行网络最大时延占比27.63%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>69900461_CPU异常时间290秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>70400729</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>临时会议(70400729)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2019-03-20 13:44:50</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2019-03-20 13:54:56</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>69900101_福建分公司第四会议室
+69900031_龙岩
+69900058_莆田业务部
+69900049_宁德</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>70455933</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>临时会议(70455933)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2019-03-20 07:57:16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2019-03-20 09:46:01</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>27</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>65000597_四川分公司
+69900676_雅安办事处
+69900677_宜宾办事处
+69900674_攀枝花办事处
+69900675_遂宁办事处
+69900678_资阳办事处
+69900679_自贡
+69900672_内江业务部
+69900673_南充办事处
+69900670_眉山业务部
+69900671_绵阳业务部
+69900665_广安业务部
+69900688_青白江办事处
+69900666_广元业务部
+69900685_甘孜业务部
+69900663_达州办事处
+69900664_银联商务德阳业务部
+69900686_金堂办事处
+69900669_泸州业务部
+69900689_金堂办事处
+69900667_乐山业务部
+69900668_凉山业务部
+69900683_阿坝办事处
+69900684_峨眉山
+69900662_巴中业务部
+69900681_成都五区
+69900682_银联商务四川分公司龙泉办事处</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>60507801</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>临时会议(60507801)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2019-03-20 08:20:40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2019-03-20 08:51:02</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>69900050_宁德福安
+69900049_宁德
+69900051_福鼎
+69900054_宁德屏南
+69900052_宁德霞浦</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>60507869</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>临时会议(60507869)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2019-03-20 10:01:36</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2019-03-20 10:19:28</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>69900902_武汉运行中心C4
+65000570_上海总公司</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>90507888</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>临时会议(90507888)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2019-03-20 10:18:32</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2019-03-20 11:41:54</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>69900902_武汉运行中心C4
+65000570_上海总公司</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20413215</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>临时会议(20413215)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2019-03-20 13:52:23</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2019-03-20 14:53:22</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>69900031_龙岩
+69900101_福建分公司第四会议室
+69900058_莆田业务部
+69900049_宁德</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>90507999</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>临时会议(90507999)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2019-03-20 13:58:39</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2019-03-20 14:48:05</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>65000570_上海总公司
+69900902_武汉运行中心C4</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>80508062</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>临时会议(80508062)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2019-03-20 15:34:18</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2019-03-20 15:56:00</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>69900902_武汉运行中心C4
+65000570_上海总公司</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>40508145</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>临时会议(40508145)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2019-03-20 17:07:33</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2019-03-20 19:12:25</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>75.0%</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>69900810_黔西南业务部
-69900812_ 遵义业务部
-65000831_贵州分公司
-69900806_六盘水业务部</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>69900812-&gt;69900806
-69900812-&gt;69900810
-69900806-&gt;69900810</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>69900355_银联商务扬州分公司
+69900356_jiangdu
+69900357_仪征
+69900358_扬州高邮业务部
+69900354_宝应</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>69900355-&gt;69900356</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20508177</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>临时会议(20508177)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2019-03-20 17:12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2019-03-20 18:50:08</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>89.47%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>69900050_宁德福安
+69900049_宁德
+69900051_福鼎
+69900054_宁德屏南
+69900052_宁德霞浦</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>69900049-&gt;69900051
+69900050-&gt;69900054</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>69900050_终端上行网络抖动
+69900049_终端上行网络抖动</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>69900050_上行网络最大时延占比40.0%
+69900049_上行网络最大时延占比2.22%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>90508211</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>临时会议(90508211)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2019-03-20 17:34:54</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2019-03-20 18:08:54</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>69900063_KE
+69900067_惠安
+69900062_泉州分公司
+69900066_南安办事处
+69900069_永春
+69900068_安溪</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>50508313</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>临时会议(50508313)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2019-03-20 18:00:48</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2019-03-20 18:06:46</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>61000824_田布刚
+63010058_南京-张小龙继续1
+69901000_楚雄元谋
+61001336_22层会议室
+63015378_杨敏强</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>60508347</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>临时会议(60508347)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2019-03-20 18:04:45</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2019-03-20 18:54:58</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>69900062_泉州分公司
+69900063_KE
+69900069_永春
+69900067_惠安
+69900068_安溪
+69900066_南安办事处</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20406801</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>临时会议(20406801)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2019-03-20 18:12:55</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2019-03-20 19:33:02</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>96.0%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>69900106_闽侯办事处
+69900102_马尾林红磊
+69900104_长乐
+69900103_福清
+69900107_平潭
+69900099_福建分公司第三会议室</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>69900099-&gt;69900102</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>69900102_终端下行网络抖动</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>69900102_下行网络最大时延占比100.0%</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>90400775</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>临时会议(90400775)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2019-03-21 08:09:07</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2019-03-22 00:00:09</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>17</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>69900842_定西分公司
+69900843_临夏分公司
+69900841_庆阳分公司
+69900845_陇南分公司
+69900829_张掖分公司
+69900830_高台业务部
+69900832_金昌分公司
+69900831_嘉峪关分公司
+69900836_金塔业务部
+69900826_白银分公司
+69900828_天水分公司
+65000596_甘肃分公司
+69900846_城西团队
+69900840_静宁业务部
+69900833_酒泉分公司
+69900837_武威分公司
+69900839_平凉分公司</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>90400789</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>临时会议(90400789)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2019-03-21 08:53:47</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2019-03-21 09:37:20</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>65000588_上海银联商务有限公司
+69900660_上海银商嘉定服务站
+69900655_上海银商青浦服务站
+69900654_上海银商松江服务站
+69900954_上海银商9楼会议室
+69900657_上海银商奉贤服务站
+69900656_上海银商金山服务站
+69900651_上海银商浦东业务部
+69900650_上海银商北区业务部
+69900661_上海银商崇明服务站
+69900653_上海银商16楼会议室
+69900652_上海银商中江路
+69900659_上海银商川沙服务站
+69900955_上海银商中区业务部
+69900658_上海银商南汇服务站
+69900649_上海银商南区业务部</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>80400755</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>临时会议(80400755)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2019-03-21 16:20:57</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2019-03-21 18:00:23</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>69900880_大连分公司
+69900882_普兰店
+69900881_瓦房店办事处
+69900884_金-开
+69900883_庄河办事处</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>69900880-&gt;69900882</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>69900880_终端上行网络抖动</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>69900880_上行网络最大时延占比4.22%</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>90400759</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>临时会议(90400759)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2019-03-21 16:39:28</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2019-03-21 17:48:20</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>97.96%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>65000812_山东分公司
+69900498_临沂分公司
+69900573_泰安分公司
+69900495_莱芜
+69900536_德州市区
+69900584_滕州业务部
+69900583_枣庄分公司
+69900578_威海分公司
+69900528_淄博分公司
+69900587_枣庄峄城
+69900486_菏泽分公司
+69900553_济宁分公司
+69900510_潍坊分公司
+69900473_滨州分公司
+69900555_曲阜业务部
+69900520_莱阳办事处
+69900563_聊城分公司
+69900569_日照
+69900519_烟台
+69900480_东营分公司</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>65000812-&gt;69900486</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>69900486_终端下行网络抖动</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>69900486_下行网络最大时延占比24.14%</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>80400745</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>临时会议(80400745)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2019-03-21 16:43:52</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2019-03-21 19:25:58</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>65000819_宁夏分公司
+69900459_宁夏分公司吴忠业务部
+69900984_宁夏分公司平罗业务部
+69900463_宁夏分公司中宁业务部
+69900462_宁夏分公司中卫业务部
+69900461_宁夏分公司石嘴山业务部
+69900460_宁夏分公司固原业务部</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>70400747</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>临时会议(70400747)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2019-03-21 17:49:15</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2019-03-21 19:19:28</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>65000818_内蒙古分公司
+69900858_阿拉善业务部
+69900859_巴彦淖尔业务部</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>50508561</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>临时会议(50508561)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2019-03-21 08:21:57</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2019-03-21 08:39:08</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>69900050_宁德福安
+69900049_宁德
+69900051_福鼎
+69900054_宁德屏南
+69900052_宁德霞浦</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90508589</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>临时会议(90508589)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2019-03-21 08:30:38</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2019-03-21 08:32:23</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>69900000_test
+69900924_张三</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>30388413</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>临时会议(30388413)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2019-03-21 08:34:23</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2019-03-21 12:08:13</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>65000826_浙江分公司
+69900775_湖州业务部
+69900788_温州业务部
+69900780_银联商务金华业务部
+69900781_丽水业务部</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>69900780-&gt;69900781
+65000826-&gt;69900781
+69900775-&gt;69900781
+69900788-&gt;69900781</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>69900775_终端上行网络抖动
+69900780_终端CPU过载
+69900781_终端下行网络丟包、抖动</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>69900781_下行网络丢包累加时长365秒</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>69900775_上行网络最大时延占比3.79%
+69900781_下行网络最大时延占比12.55%</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>69900780_CPU异常时间350秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>90508621</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>临时会议(90508621)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2019-03-21 08:53:24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2019-03-21 09:03:07</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>69900599_陕西分公司榆林业务部
+69900608_陕西分公司神木</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>30423205</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>临时会议(30423205)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2019-03-21 17:12:05</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2019-03-21 18:03:44</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>69900044_顺昌
+69900043_建阳
+69900042_建瓯
+69900040_邵武
+69900041_武夷山
+69900039_福建-南平</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20509097</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>临时会议(20509097)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2019-03-21 17:28:47</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2019-03-21 18:01:21</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>69900099_福建分公司第三会议室
+69900062_泉州分公司
+69900978_福建分公司终端灌装中心
+69900058_莆田业务部</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>80400757</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>临时会议(80400757)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2019-03-22 10:32:13</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2019-03-22 13:49:07</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>65000813_青岛分公司
+69900469_青岛-平度
+69900468_青岛-莱西
+69900467_青岛-开发区
+69900466_青岛-胶州
+69900470_青岛-即墨
+69900465_青岛-城阳</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30388413</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>临时会议(30388413)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2019-03-22 10:28:02</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2019-03-22 11:49:53</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>69900787_浙江台州业务部
+69900784_绍兴业务部
+65000826_浙江分公司
+69900783_衢州业务部
+69900789_舟山业务部
+69900776_嘉兴业务部</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>50509531</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>临时会议(50509531)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2019-03-22 13:03:48</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2019-03-22 13:25:16</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>69900348_盐城11
+69900327_江苏宿迁泗阳
+69900341_徐州分公司</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>69900348-&gt;69900341
+69900341-&gt;69900348
+69900341-&gt;69900327</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>69900341_终端上行网络抖动
+69900348_终端上行网络抖动
+69900348_终端CPU过载</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>69900341_上行网络最大时延占比100.0%
+69900348_上行网络最大时延占比6.78%</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>69900348_CPU异常时间15秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>70400729</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>临时会议(70400729)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2019-03-25 15:02:50</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2019-03-25 16:02:52</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>69900031_龙岩
+69900101_福建分公司第四会议室</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>40400739</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>临时会议(40400739)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2019-03-25 16:44:50</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2019-03-25 17:57:46</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>69900111_广西百色业务部
+69900132_梧州业务部
+69900133_广西藤县
+65000823_广西分公司
+69900112_北海业务部
+69900126_广西柳州业务部
+69900115_防城港业务部
+69900116_广西贵港
+69900118_桂林业务部
+69900123_河池业务部
+69900134_广西玉林业务部
+69900114_崇左
+69900125_来宾</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>30511609</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>临时会议(30511609)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2019-03-25 14:42:06</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2019-03-25 16:54:22</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>69900074_ 三明业务部
+69900080_沙县
+69900075_宁化县
+69900078_三明大田
+69900077_永安
+69900079_三明尤溪</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>40511611</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>临时会议(40511611)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2019-03-25 14:50:04</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2019-03-25 23:59:57</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>69900902_武汉运行中心C4
+65000801_107会议室</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20511751</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>临时会议(20511751)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2019-03-25 15:37:21</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2019-03-25 18:10:39</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>69900367_南京分公司城东办事处
+69900369_城北办事处
+69900364_南京分公司25楼
+69900294_南京高淳
+69900366_溧水办事处
+69900363_江苏江北办事处
+69900372_江苏21楼会议室
+69900365_江宁业务部</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>60511931</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>临时会议(60511931)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2019-03-25 17:29:27</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2019-03-25 18:21:52</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>69900101_福建分公司第四会议室
+69900062_泉州分公司
+69900978_福建分公司终端灌装中心</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20406801</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>临时会议(20406801)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2019-03-25 17:48:01</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2019-03-25 21:43:23</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>96.55%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>69900107_平潭
+69900099_福建分公司第三会议室
+69900106_闽侯办事处
+69900102_马尾林红磊
+69900104_长乐
+69900103_福清</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>69900099-&gt;69900104</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>69900104_终端下行网络丟包、抖动</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>69900104_下行网络丢包累加时长1780秒</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>69900104_下行网络最大时延占比66.67%</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>90511969</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>临时会议(90511969)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2019-03-25 18:04:32</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2019-03-25 19:15:46</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>69900608_陕西分公司神木
+69900609_府谷
+69900600_靖边业务部
+69900599_陕西分公司榆林业务部
+69900620_定边</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>90400775</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>临时会议(90400775)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2019-03-26 08:41:12</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2019-03-26 19:12:49</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>19</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>94.2%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>69900837_武威分公司
+69900833_酒泉分公司
+69900832_金昌分公司
+69900828_天水分公司
+65000596_甘肃分公司
+69900839_平凉分公司
+69900831_嘉峪关分公司
+69900845_陇南分公司
+69900841_庆阳分公司
+69900843_临夏分公司
+69900826_白银分公司
+69900829_张掖分公司
+69900834_敦煌业务部
+69900935_瓜州
+69900846_城西团队
+69900840_静宁业务部
+69900842_定西分公司
+69900836_金塔业务部
+69900830_高台业务部</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>65000596-&gt;69900829
+69900841-&gt;69900829
+69900839-&gt;65000596
+69900841-&gt;69900837
+69900839-&gt;69900833
+69900839-&gt;69900843
+69900839-&gt;69900841
+69900839-&gt;69900845</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>69900841_终端上行网络抖动
+69900837_终端下行网络抖动
+69900829_终端下行网络丟包、抖动
+69900839_终端上行网络抖动
+69900841_终端CPU过载</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>69900829_下行网络丢包累加时长330秒</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>69900841_上行网络最大时延占比1.24%
+69900837_下行网络最大时延占比14.29%
+69900829_下行网络最大时延占比100.0%
+69900839_上行网络最大时延占比14.04%</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>69900841_CPU异常时间745秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10400777</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>临时会议(10400777)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2019-03-26 13:37:24</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2019-03-26 15:09:40</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>92.31%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>65000595_安徽分公司
+69900010_安徽分公司滁州业务部
+69900023_安徽分公司马鞍山业务部
+69900002_安徽分公司安庆业务部桐城办事处
+69900003_安徽分公司蚌埠业务部
+69900004_安徽分公司亳州业务部
+69900027_安徽分公司芜湖业务部
+69900962_安徽分公司淮南业务部寿县办事处
+69900005_安徽分公司亳州业务部 利辛县
+69900028_安徽分公司宣城业务部
+69900017_安徽分公司淮北业务部
+69900007_安徽分公司巢湖业务部
+69900018_安徽分公司淮南业务部
+69900009_安徽分公司池州业务部</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>65000595-&gt;69900003</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>69900003_终端下行网络抖动</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>69900003_下行网络最大时延占比5.19%</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>90400785</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>临时会议(90400785)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2019-03-26 17:02:02</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2019-03-26 17:10:19</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>65000589_银联电子支付大会议室
+69900638_北京</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>40400779</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>临时会议(40400779)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2019-03-26 17:33:52</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2019-03-26 17:48:38</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>65000592_江苏分公司会议室
+69900300_盱眙
+69900328_沭阳</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>70400729</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>临时会议(70400729)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2019-03-26 17:36:20</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2019-03-26 21:51:16</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>32</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>98.78%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>65000827_银联商务福建分公司
+69900059_仙游县
+69900058_莆田业务部
+69900039_福建-南平
+69900090_龙海
+69900054_宁德屏南
+69900097_南靖
+69900050_宁德福安
+69900052_宁德霞浦
+69900051_福鼎
+69900095_云霄县
+69900092_漳浦
+69900087_漳州
+69900031_龙岩
+69900049_宁德
+69900089_龙文
+69900064_晋江
+69900036_龙岩-上杭县
+69900061_莆田业务部秀屿办事处
+69900034_龙岩市长汀县
+69900060_涵江
+69900074_ 三明业务部
+69900062_泉州分公司
+69900107_平潭
+69900067_惠安
+69900106_闽侯办事处
+69900066_南安办事处
+69900104_长乐
+69900068_安溪
+69900103_福清
+69900102_马尾林红磊
+69900069_永春</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>65000827-&gt;69900060</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>69900060_终端下行网络抖动
+69900060_终端CPU过载</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>69900060_下行网络最大时延占比13.19%</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>69900060_CPU异常时间45秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>70400747</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>临时会议(70400747)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2019-03-26 17:44:54</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2019-03-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>65000818_内蒙古分公司
+69900858_阿拉善业务部</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>70455933</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>临时会议(70455933)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2019-03-26 08:17:05</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2019-03-26 09:12:05</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>20</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>65000597_四川分公司
+69900665_广安业务部
+69900676_雅安办事处
+69900677_宜宾办事处
+69900666_广元业务部
+69900685_甘孜业务部
+69900663_达州办事处
+69900674_攀枝花办事处
+69900664_银联商务德阳业务部
+69900675_遂宁办事处
+69900678_资阳办事处
+69900667_乐山业务部
+69900668_凉山业务部
+69900679_自贡
+69900683_阿坝办事处
+69900672_内江业务部
+69900673_南充办事处
+69900662_巴中业务部
+69900670_眉山业务部
+69900671_绵阳业务部</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>90512355</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>临时会议(90512355)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2019-03-26 08:26:58</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2019-03-26 08:35:34</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>69900050_宁德福安
+69900049_宁德
+69900051_福鼎
+69900054_宁德屏南
+69900052_宁德霞浦</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50512771</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>临时会议(50512771)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2019-03-26 14:45:39</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2019-03-26 15:18:34</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>69900000_test
+65000594_B106会议室</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>30512923</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>临时会议(30512923)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2019-03-26 17:28:56</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2019-03-26 18:21:13</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>19</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>57.58%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>69900243_河南分公司会议室
+69900231_三门峡
+69900230_漯河
+69900239_驻马店
+69900218_开封业务部
+69900224_银联商务鹤壁业务部
+69900236_信阳
+69900238_银联商务周口业务部
+69900234_商丘
+69900233_南阳
+69900219_洛阳
+69900242_河南分公司
+69900221_平顶山业务部
+69900241_巩义
+69900228_濮阳业务部
+69900226_焦作
+69900229_许昌业务部
+69900225_新乡业务部
+69900222_安阳</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>69900243-&gt;69900231
+69900243-&gt;69900230
+69900243-&gt;69900239
+69900243-&gt;69900218
+69900243-&gt;69900238
+69900243-&gt;69900233
+69900243-&gt;69900234
+69900243-&gt;69900219
+69900243-&gt;69900221
+69900243-&gt;69900241
+69900243-&gt;69900228
+69900243-&gt;69900224
+69900243-&gt;69900225
+69900243-&gt;69900222</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>69900243_终端上行网络抖动</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>69900243_上行网络最大时延占比2.71%</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20406801</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>临时会议(20406801)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2019-03-26 17:37:50</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2019-03-26 19:10:56</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>69900099_福建分公司第三会议室
+69900106_闽侯办事处
+69900107_平潭
+69900102_马尾林红磊
+69900103_福清
+69900104_长乐</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>69900099-&gt;69900107</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>69900107_终端下行网络丟包</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>69900107_下行网络丢包累加时长180秒</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>40512961</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>临时会议(40512961)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2019-03-26 17:51:08</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019-03-26 18:42:06</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>69900326_泗洪
+69900327_江苏宿迁泗阳
+69900328_沭阳
+69900325_银联商务宿迁分公司</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>60512975</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>临时会议(60512975)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2019-03-26 18:09:50</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019-03-26 19:19:17</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>69900618_陕西分公司——延安业务部
+69900599_陕西分公司榆林业务部</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>40400779</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>临时会议(40400779)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2019-03-27 08:00:36</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019-03-27 09:08:35</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>68</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>95.52%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>65000592_江苏分公司会议室
+69900339_睢宁业务部
+69900332_泰兴业务部
+69900333_泰州姜堰业务部
+69900330_戚菲
+69900297_淮安
+69900298_金湖
+69900331_靖江业务部
+69900336_宜兴业务部
+69900337_江阴业务部
+69900334_兴化业务部
+69900335_无锡
+69900291_常州分公司
+69900292_市场服务部
+69900290_溧阳
+69900295_涟水业务部
+69900372_江苏21楼会议室
+69900296_楚州业务部
+69900371_江苏分公司
+69900294_南京高淳
+69900307_南通
+69900308_启东业务部
+69900305_连云区
+69900349_东台
+69900306_灌南
+69900309_海门业务部
+69900300_盱眙
+69900341_徐州分公司
+69900303_连云港-东海
+69900347_徐旭
+69900348_盐城11
+69900304_灌云业务部
+69900301_连云港
+69900345_银联商务邳州业务部
+69900302_连云港--赣榆
+69900346_盐城响水
+69900340_贾汪
+69900318_张家港业务部
+69900319_吴江业务部
+69900316_昆山业务部
+69900317_常熟
+69900310_如皋业务部
+69900354_宝应
+69900311_如东办事处
+69900355_银联商务扬州分公司
+69900352_建湖
+69900353_射阳
+69900358_扬州高邮业务部
+69900315_苏州
+69900356_jiangdu
+69900313_南通海安
+69900357_仪征
+69900350_银联商务大丰业务部
+69900329_泰州
+69900327_江苏宿迁泗阳
+69900328_沭阳
+69900365_江宁业务部
+69900321_大客户服务部
+69900366_溧水办事处
+69900363_江苏江北办事处
+69900364_南京分公司25楼
+69900320_苏州-太仓业务部
+69900325_银联商务宿迁分公司
+69900369_城北办事处
+69900326_泗洪
+69900367_南京分公司城东办事处
+69900324_苏州市场四部
+69900360_镇江分公司</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>65000592-&gt;69900297
+65000592-&gt;69900337
+65000592-&gt;69900291</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>69900297_终端下行网络抖动
+69900291_终端下行网络丟包、抖动
+69900337_终端下行网络抖动</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>69900291_下行网络丢包累加时长460秒</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>69900297_下行网络最大时延占比9.23%
+69900291_下行网络最大时延占比67.37%
+69900337_下行网络最大时延占比68.0%</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>80400751</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>临时会议(80400751)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2019-03-27 08:03:08</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019-03-27 08:56:02</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>65000816_吉林分公司
+69900287_松原市
+69900289_延吉
+69900282_吉林市业务部
+69900283_四平业务部</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>70400749</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>临时会议(70400749)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2019-03-27 08:31:50</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2019-03-27 08:34:21</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>69900818_佳木斯业务部
+69900821_七台河业务部
+69900825_伊春业务部
+69900814_大兴安岭业务部
+69900824_绥化业务部
+69900813_大庆业务部
+69900822_齐齐哈尔业务部
+69900817_鸡西业务部
+69900816_黑河业务部
+69900815_鹤岗业务部</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>70400729</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>临时会议(70400729)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2019-03-27 08:44:33</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2019-03-27 19:30:52</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>19</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>69900031_龙岩
+69900047_福建南平松溪
+69900042_建瓯
+69900039_福建-南平
+69900058_莆田业务部
+65000827_银联商务福建分公司
+69900041_武夷山
+69900044_顺昌
+69900043_建阳
+69900087_漳州
+69900049_宁德
+69900040_邵武
+69900062_泉州分公司
+69900074_ 三明业务部
+69900064_晋江
+69900079_三明尤溪
+69900078_三明大田
+69900075_宁化县
+69900065_晋江</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>40400725</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>临时会议(40400725)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2019-03-27 08:53:33</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019-03-27 09:18:42</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>69900895_海西业务部
+65000822_银联商务青海分公司
+69900896_海南业务部
+65000829_深圳市银联金融网络有限公司
+69900905_海东业务部</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>80400757</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>临时会议(80400757)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2019-03-27 09:03:30</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2019-03-27 17:25:47</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>65000813_青岛分公司
+69900469_青岛-平度
+69900468_青岛-莱西
+69900466_青岛-胶州
+69900467_青岛-开发区
+69900470_青岛-即墨
+69900465_青岛-城阳</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>70400741</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>临时会议(70400741)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2019-03-27 09:57:07</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2019-03-27 11:19:55</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>69900431_江西南昌业务部进贤县
+69900392_吉安业务部
+69900418_新余业务部
+69900429_鹰潭业务部
+69900374_赣州业务部
+69900373_抚州业务部
+69900411_萍乡业务部
+69900399_景德镇业务部
+69900415_上饶业务部</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>50400769</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>临时会议(50400769)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2019-03-27 10:25:09</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2019-03-27 15:14:51</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>11</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>93.9%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>69900592_晋中业务部
+69900697_yqywb
+69900594_吕梁业务部
+69900598_运城业务部
+69900590_大同业务部
+69900591_晋城业务部
+69900593_临汾业务部
+69900595_朔州业务部
+69900596_忻州业务部
+65000807_银联商务山西分公司
+69900589_长治业务部</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>69900590-&gt;65000807
+69900590-&gt;69900598
+65000807-&gt;69900589
+65000807-&gt;69900598
+69900595-&gt;69900598</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>69900598_终端CPU过载
+69900598_终端下行网络抖动
+65000807_终端下行网络抖动
+69900590_终端CPU过载
+65000807_终端上行网络抖动
+69900595_终端CPU过载</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>69900598_下行网络最大时延占比30.0%
+65000807_下行网络最大时延占比13.33%
+65000807_上行网络最大时延占比3.96%</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>69900598_CPU异常时间205秒
+69900590_CPU异常时间3915秒
+69900595_CPU异常时间2510秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>50400753</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>临时会议(50400753)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2019-03-27 15:42:16</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2019-03-27 18:14:53</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>82.22%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>69900438_辽宁分公司-丹东
+69900444_辽宁分公司-盘锦
+69900442_锦州
+69900446_辽宁分公司-铁岭
+69900441_辽宁--葫芦岛
+69900450_银联商务辽宁分公司
+69900447_辽宁分公司-营口
+69900433_辽宁分公司-鞍山
+69900436_辽宁分公司-本溪
+69900439_辽宁分公司-抚顺</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>69900446-&gt;69900447
+69900446-&gt;69900444
+69900446-&gt;69900441
+69900446-&gt;69900436
+69900446-&gt;69900438
+69900446-&gt;69900439
+69900446-&gt;69900450
+69900446-&gt;69900433</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>69900446_终端上行网络丟包、抖动</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>69900446_上行网络丢包累加时长190秒</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>69900446_上行网络最大时延占比56.16%</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>70400747</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>临时会议(70400747)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2019-03-27 15:48:19</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2019-03-27 17:01:57</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>12</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>65000818_内蒙古分公司
+69900866_赤峰业务部
+69900849_包头分公司
+69900869_通辽业务部
+69900858_阿拉善业务部
+69900859_巴彦淖尔业务部
+69900870_兴安盟业务部
+69900863_锡盟业务部
+69900874_满洲里业务部
+69900853_鄂尔多斯业务部
+69900864_二连业务部
+69900873_海拉尔</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>80400755</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>临时会议(80400755)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2019-03-27 17:04:52</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2019-03-27 17:26:53</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>69900880_大连分公司
+69900882_普兰店
+69900881_瓦房店办事处
+69900884_金-开
+69900883_庄河办事处
+69900885_旅顺</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>70455933</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>临时会议(70455933)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2019-03-27 07:52:02</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2019-03-27 08:34:24</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>26</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>96.0%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>65000597_四川分公司
+69900676_雅安办事处
+69900677_宜宾办事处
+69900674_攀枝花办事处
+69900675_遂宁办事处
+69900678_资阳办事处
+69900679_自贡
+69900672_内江业务部
+69900673_南充办事处
+69900670_眉山业务部
+69900671_绵阳业务部
+69900665_广安业务部
+69900688_青白江办事处
+69900666_广元业务部
+69900685_甘孜业务部
+69900663_达州办事处
+69900664_银联商务德阳业务部
+69900686_金堂办事处
+69900669_泸州业务部
+69900667_乐山业务部
+69900689_金堂办事处
+69900668_凉山业务部
+69900683_阿坝办事处
+69900662_巴中业务部
+69900681_成都五区
+69900682_银联商务四川分公司龙泉办事处</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>65000597-&gt;69900681</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>69900681_终端下行网络抖动</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>69900681_下行网络最大时延占比16.94%</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>40513207</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>临时会议(40513207)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2019-03-27 08:25:34</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2019-03-28 00:02:21</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>69900050_宁德福安
+69900049_宁德
+69900051_福鼎
+69900054_宁德屏南
+69900052_宁德霞浦</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>90513377</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>临时会议(90513377)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2019-03-27 10:48:44</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2019-03-27 12:16:28</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>69900902_武汉运行中心C4
+65000570_上海总公司</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>60513639</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>临时会议(60513639)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2019-03-27 16:36:03</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2019-03-27 17:49:29</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>65000802_123培训室
+69900981_重庆小贷
+69900701_厦门分公司</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>40513699</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>临时会议(40513699)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2019-03-27 17:09:41</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2019-03-27 18:22:35</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>21</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>55.0%</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>69900242_河南分公司
+69900231_三门峡
+69900220_平顶山
+69900241_巩义
+69900230_漯河
+69900233_南阳
+69900222_安阳
+69900243_河南分公司会议室
+69900221_平顶山业务部
+69900224_银联商务鹤壁业务部
+69900234_商丘
+69900226_焦作
+69900225_新乡业务部
+69900236_信阳
+69900228_濮阳业务部
+69900239_驻马店
+69900238_银联商务周口业务部
+69900227_济源
+69900219_洛阳
+69900218_开封业务部
+69900229_许昌业务部</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>69900242-&gt;69900230
+69900242-&gt;69900222
+69900242-&gt;69900221
+69900242-&gt;69900224
+69900242-&gt;69900225
+69900242-&gt;69900236
+69900242-&gt;69900239
+69900242-&gt;69900238
+69900242-&gt;69900229</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>69900222_终端下行网络丟包、抖动
+69900239_终端下行网络丟包、抖动
+69900236_终端下行网络丟包、抖动
+69900238_终端下行网络丟包、抖动
+69900230_终端下行网络丟包、抖动
+69900224_终端下行网络丟包、抖动
+69900221_终端下行网络丟包、抖动
+69900229_终端下行网络丟包、抖动
+69900225_终端下行网络丟包、抖动
+69900224_终端CPU过载</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>69900222_下行网络丢包累加时长415秒
+69900239_下行网络丢包累加时长315秒
+69900236_下行网络丢包累加时长530秒
+69900238_下行网络丢包累加时长465秒
+69900230_下行网络丢包累加时长310秒
+69900224_下行网络丢包累加时长475秒
+69900221_下行网络丢包累加时长575秒
+69900229_下行网络丢包累加时长505秒
+69900225_下行网络丢包累加时长500秒</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>69900222_下行网络最大时延占比8.59%
+69900239_下行网络最大时延占比10.0%
+69900236_下行网络最大时延占比37.97%
+69900238_下行网络最大时延占比10.34%
+69900230_下行网络最大时延占比12.73%
+69900224_下行网络最大时延占比10.95%
+69900221_下行网络最大时延占比12.78%
+69900229_下行网络最大时延占比9.41%
+69900225_下行网络最大时延占比8.22%</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>69900224_CPU异常时间3240秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20406801</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>临时会议(20406801)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2019-03-27 17:37:22</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2019-03-27 20:42:22</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>6</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>69900107_平潭
+69900099_福建分公司第三会议室
+69900106_闽侯办事处
+69900102_马尾林红磊
+69900104_长乐
+69900103_福清</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20400763</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>临时会议(20400763)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2019-03-28 00:17:13</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2019-03-28 14:45:36</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>65000810_陕西分公司
+69900606_陕西分公司-城中业务部
+69900613_陕西分公司咸阳业务部</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>90400789</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>临时会议(90400789)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2019-03-28 08:56:45</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2019-03-28 09:40:55</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>11</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>65000588_上海银联商务有限公司
+69900655_上海银商青浦服务站
+69900654_上海银商松江服务站
+69900954_上海银商9楼会议室
+69900651_上海银商浦东业务部
+69900650_上海银商北区业务部
+69900653_上海银商16楼会议室
+69900660_上海银商嘉定服务站
+69900955_上海银商中区业务部
+69900658_上海银商南汇服务站
+69900649_上海银商南区业务部</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>70400729</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>临时会议(70400729)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2019-03-28 09:27:45</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2019-03-28 10:07:15</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>80400745</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>临时会议(80400745)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2019-03-28 16:51:29</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2019-03-28 18:02:06</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>7</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>65000819_宁夏分公司
+69900459_宁夏分公司吴忠业务部
+69900984_宁夏分公司平罗业务部
+69900463_宁夏分公司中宁业务部
+69900462_宁夏分公司中卫业务部
+69900461_宁夏分公司石嘴山业务部
+69900460_宁夏分公司固原业务部</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>65000819-&gt;69900984</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>69900984_终端CPU过载
+69900984_终端下行网络丟包</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>69900984_下行网络丢包累加时长1345秒</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>69900984_CPU异常时间45秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>90400775</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>临时会议(90400775)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2019-03-28 17:52:40</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2019-03-28 18:27:19</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>65000596_甘肃分公司
+69900841_庆阳分公司</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>40513207</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>临时会议(40513207)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2019-03-28 08:27:09</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2019-03-28 08:46:06</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>93.75%</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>69900050_宁德福安
+69900049_宁德
+69900051_福鼎
+69900054_宁德屏南
+69900052_宁德霞浦</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>69900049-&gt;69900051</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>69900049_终端CPU过载
+69900051_终端下行网络抖动</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>69900051_下行网络最大时延占比100.0%</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>69900049_CPU异常时间220秒</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>90513991</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>临时会议(90513991)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2019-03-28 09:00:47</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2019-03-28 09:49:47</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>65000593_小会议室中
+65000819_宁夏分公司</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>60514001</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>临时会议(60514001)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2019-03-28 09:07:43</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2019-03-28 10:46:10</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>28</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>69900903_广州银联网络支付有限公司(4号会议
+69900157_南区分公司
+69900158_广州银联网络西区分公司
+69900143_潮州分公司
+69900172_梅州分公司
+69900159_广州银联网络支付有限公司增城分公
+69900153_银联网络-北区
+69900154_广州-从化分公司
+69900155_东区分公司
+69900156_花都分公司
+69900193_中山
+69900150_佛山分公司-2
+69900194_珠海分公司
+69900195_顺德分公司
+69900188_韶关分公司
+69900196_湛江分公司
+69900146_东莞分公司
+69900190_阳江分公司
+69900191_广州银联网络云浮分公司
+69900192_肇庆分公司
+69900169_银联网络江门分公司
+69900160_河源分公司
+69900163_惠州分公司
+69900175_清远市分公司
+69900171_茂名分公司
+69900170_揭阳分公司
+69900182_汕头分公司
+69900185_汕尾分公司</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>60514229</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>临时会议(60514229)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2019-03-28 15:04:28</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2019-03-28 16:22:13</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>69900902_武汉运行中心C4
+65000570_上海总公司</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>90514361</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>临时会议(90514361)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2019-03-28 18:13:17</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2019-03-28 19:36:34</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>69900031_龙岩
+69900034_龙岩市长汀县
+69900036_龙岩-上杭县</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>80400733</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>临时会议(80400733)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2019-03-29 14:03:19</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2019-03-29 14:51:27</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>65000825_宁波银联商务
+69900453_慈溪</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>90400785</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>临时会议(90400785)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2019-03-29 14:03:20</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2019-03-29 16:32:32</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>69900625_银联电子(软件园)
+69900627_武汉技术中心
+65000589_银联电子支付大会议室
+69900628_沈阳
+69900642_李京</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>90400781</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>临时会议(90400781)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2019-03-29 14:17:09</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2019-03-29 14:37:24</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>69900903_广州银联网络支付有限公司(4号会议
+69900157_南区分公司
+69900148_佛山银联网络
+69900153_银联网络-北区
+69900187_普宁办事处
+69900193_中山
+69900160_河源分公司
+69900171_茂名分公司
+69900194_珠海分公司
+69900190_阳江分公司</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10400777</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>临时会议(10400777)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2019-03-29 15:35:10</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2019-03-29 16:16:07</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>65000595_安徽分公司
+69900010_安徽分公司滁州业务部
+69900023_安徽分公司马鞍山业务部</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>80400757</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>临时会议(80400757)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2019-03-29 16:02:23</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2019-03-29 16:32:34</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>65000813_青岛分公司
+69900469_青岛-平度
+69900468_青岛-莱西
+69900470_青岛-即墨
+69900466_青岛-胶州
+69900467_青岛-开发区
+69900465_青岛-城阳</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>70400741</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>临时会议(70400741)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2019-03-29 16:11:39</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2019-03-29 16:35:09</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>11</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>69900430_银联商务江西分公司
+69900415_上饶业务部
+69900399_景德镇业务部
+69900421_宜春业务部
+69900400_景德镇业务部
+69900411_萍乡业务部
+69900373_抚州业务部
+69900374_赣州业务部
+69900418_新余业务部
+69900429_鹰潭业务部
+69900392_吉安业务部</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20514093</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>临时会议(20514093)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2019-03-29 13:01:27</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2019-03-30 00:00:07</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>65000801_107会议室
+69900880_大连分公司</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>50513245</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>临时会议(50513245)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2019-03-29 14:03:22</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2019-03-29 16:34:52</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>69900050_宁德福安
+69900049_宁德
+69900051_福鼎
+69900054_宁德屏南
+69900052_宁德霞浦</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
